--- a/16_REST_API_Testing/Praktikum.xlsx
+++ b/16_REST_API_Testing/Praktikum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
